--- a/examples/wangetal2018/out/ResultFiles/DR_0.5_b.xlsx
+++ b/examples/wangetal2018/out/ResultFiles/DR_0.5_b.xlsx
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="165">
   <si>
     <t xml:space="preserve">
 ---------DISCLAIMER---------
 AS NOTED IN THE LICENSE, ALLIANCE FOR SUSTAINABLE ENERGY, LLC: (i) DISCLAIMS ANY WARRANTIES, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO ANY IMPLIED WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE, TITLE OR NON-INFRINGEMENT, AND (ii) DOES NOT ASSUME ANY LEGAL LIABILITY OR RESPONSIBILITY FOR THE ACCURACY, COMPLETENESS, OR USEFULNESS OF SOFTWARE OR ITS OUTPUTS. ANY RELIANCE BY THE USER ON THE SOFTWARE IS DONE AT THE USER’S OWN RISK.
-BlendPATH was developed to provide the user with economic analytical capabilities to evaluate potential natural gas transmission pipeline modifications for accommodating hydrogen blending or pure hydrogen streams and to assess the potential associated economic impacts. This tool is intended for use during the early stages of pipeline repurposing concept evaluation, which is defined here as the initial project phase when the developer has already gathered the relevant pipeline material design and operation data but has not yet conducted the detailed pipeline materials testing, as specified in ASME B31.12, or performed the in-line inspections that qualify a given pipeline section for hydrogen or hydrogen blending service. Despite BlendPATH using ASME B31.12 to assess existing natural gas transmission pipelines and establish potential pipeline modifications for a natural gas transmission pipeline network to meet ASME B31.12 design requirements, BlendPATH does not qualify the examined pipeline network or modifications thereof for pure hydrogen or hydrogen blending. Further, actual natural gas transmission pipeline network assessment and qualification will require additional evaluations, independent of BlendPATH application, as specified in ASME B31.12. It is the sole responsibility of the pipeline owner and operator to ensure that their pipeline qualifies for the ASME B31.12 design option that they choose, and any other relevant regulations, and that any defects present in the pipeline are acceptable at the operating pressure chosen.
+BlendPATH was developed to provide the user with economic analytical capabilities to evaluate potential natural gas transmission pipeline modifications for accommodating hydrogen blending or pure hydrogen streams and to assess the potential associated economic impacts. This model is intended for use during the early stages of pipeline repurposing concept evaluation, which is defined here as the initial project phase when the developer has already gathered the relevant pipeline material design and operation data but has not yet conducted the detailed pipeline materials testing, as specified in ASME B31.12, or performed the in-line inspections that qualify a given pipeline section for hydrogen or hydrogen blending service. Despite BlendPATH using ASME B31.12 to assess existing natural gas transmission pipelines and establish potential pipeline modifications for a natural gas transmission pipeline network to meet ASME B31.12 design requirements, BlendPATH does not qualify the examined pipeline network or modifications thereof for pure hydrogen or hydrogen blending. Pipeline owners and operators must conduct additional evaluations as specified in ASME B31.12 and other relevant code and regulations, independent of BlendPATH application, to qualify actual natural gas transmission pipelines for operation with hydrogen. Failure to do so may result in pipeline fatigue and/or rupture. It is the sole responsibility of the pipeline owner and operator to ensure that their pipeline qualifies for the ASME B31.12 design option that they choose, and any other relevant code and regulations, and that any defects present in the pipeline are acceptable at the operating pressure chosen.
 ----------------------------
 </t>
   </si>
@@ -171,12 +171,12 @@
     <t>LCOT: Compressor fuel (electric)</t>
   </si>
   <si>
+    <t>LCOT: Supply commpressor fuel (electric)</t>
+  </si>
+  <si>
     <t>LCOT: Supply commpressor fuel</t>
   </si>
   <si>
-    <t>LCOT: Supply commpressor fuel (electric)</t>
-  </si>
-  <si>
     <t>LCOT: Fixed O&amp;M</t>
   </si>
   <si>
@@ -231,6 +231,9 @@
     <t>Valve modifications</t>
   </si>
   <si>
+    <t>Hydrogen energy ratio</t>
+  </si>
+  <si>
     <t>$/MMBTU</t>
   </si>
   <si>
@@ -258,6 +261,9 @@
     <t>$</t>
   </si>
   <si>
+    <t>%</t>
+  </si>
+  <si>
     <t>Breakdown of original pipe by diameter, schedule and grade</t>
   </si>
   <si>
@@ -474,7 +480,7 @@
     <t>Isentropic efficiency</t>
   </si>
   <si>
-    <t>Mechanical efficiency</t>
+    <t>Driver efficiency</t>
   </si>
   <si>
     <t>Cost ($)</t>
@@ -1113,7 +1119,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1135,10 +1141,10 @@
         <v>37</v>
       </c>
       <c r="B2">
-        <v>0.2134829948237787</v>
+        <v>0.2175510305120462</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1149,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1160,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1168,10 +1174,10 @@
         <v>40</v>
       </c>
       <c r="B5">
-        <v>0.03197497507688425</v>
+        <v>0.03246992892864016</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1182,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1190,10 +1196,10 @@
         <v>42</v>
       </c>
       <c r="B7">
-        <v>0.006607418891407117</v>
+        <v>0.006709697858712112</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1201,10 +1207,10 @@
         <v>43</v>
       </c>
       <c r="B8">
-        <v>0.01566494167371593</v>
+        <v>0.01590742577887298</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1215,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1226,7 +1232,7 @@
         <v>0.01701801172198347</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1234,10 +1240,10 @@
         <v>46</v>
       </c>
       <c r="B11">
-        <v>0.1246854099239026</v>
+        <v>0.1267819392557069</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1248,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1259,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1270,7 +1276,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1278,10 +1284,10 @@
         <v>50</v>
       </c>
       <c r="B15">
-        <v>0.001940236129068262</v>
+        <v>0.002370178938174385</v>
       </c>
       <c r="C15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1289,10 +1295,10 @@
         <v>51</v>
       </c>
       <c r="B16">
-        <v>0.01460330580167862</v>
+        <v>0.0152858270694272</v>
       </c>
       <c r="C16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1300,10 +1306,10 @@
         <v>52</v>
       </c>
       <c r="B17">
-        <v>0.0009886956051384523</v>
+        <v>0.001008020960529054</v>
       </c>
       <c r="C17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1314,7 +1320,7 @@
         <v>4.40756</v>
       </c>
       <c r="C18" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1325,7 +1331,7 @@
         <v>7.39</v>
       </c>
       <c r="C19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1336,7 +1342,7 @@
         <v>13.54723404173073</v>
       </c>
       <c r="C20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1347,7 +1353,7 @@
         <v>527617.1846909181</v>
       </c>
       <c r="C21" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1358,7 +1364,7 @@
         <v>21984.04936212159</v>
       </c>
       <c r="C22" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1369,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1380,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1399,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1407,10 +1413,10 @@
         <v>61</v>
       </c>
       <c r="B27">
-        <v>4856.058790557219</v>
+        <v>4937.711244501772</v>
       </c>
       <c r="C27" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1418,10 +1424,10 @@
         <v>61</v>
       </c>
       <c r="B28">
-        <v>202.3357829398841</v>
+        <v>205.7379685209072</v>
       </c>
       <c r="C28" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1432,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1443,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1454,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1465,7 +1471,7 @@
         <v>50748077.07023712</v>
       </c>
       <c r="C32" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1476,7 +1482,7 @@
         <v>10486757.29473448</v>
       </c>
       <c r="C33" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1487,136 +1493,121 @@
         <v>24862120</v>
       </c>
       <c r="C34" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" t="s">
         <v>77</v>
       </c>
     </row>
+    <row r="35" spans="1:8">
+      <c r="A35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35">
+        <v>24.24086700823207</v>
+      </c>
+      <c r="C35" t="s">
+        <v>78</v>
+      </c>
+    </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B39" s="2" t="s">
+      <c r="A39" t="s">
         <v>79</v>
       </c>
-      <c r="C39" s="2" t="s">
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="B40" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40">
+      <c r="C40" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41">
         <v>650</v>
       </c>
-      <c r="B40">
+      <c r="B41">
         <v>400</v>
       </c>
-      <c r="C40" t="s">
-        <v>82</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="C41" t="s">
+        <v>84</v>
+      </c>
+      <c r="D41" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G45" s="2" t="s">
+      <c r="E46" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="H45" s="2" t="s">
+      <c r="F46" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" t="s">
+      <c r="G46" s="2" t="s">
         <v>90</v>
       </c>
+      <c r="H46" s="2" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B50" s="2" t="s">
+      <c r="A50" t="s">
         <v>92</v>
       </c>
-      <c r="C50" s="2" t="s">
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="B51" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="C51" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="D51" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G50" s="2" t="s">
+      <c r="E51" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="H50" s="2" t="s">
+      <c r="F51" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" t="s">
+      <c r="G51" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B51">
-        <v>6.913414328686582</v>
-      </c>
-      <c r="C51">
-        <v>12.5</v>
-      </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <v>16916025.69007904</v>
-      </c>
-      <c r="G51">
-        <v>66.07690792386252</v>
-      </c>
-      <c r="H51">
-        <v>0</v>
+      <c r="H51" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B52">
-        <v>8.895544977782331</v>
+        <v>7.269374036583699</v>
       </c>
       <c r="C52">
         <v>12.5</v>
@@ -1631,7 +1622,7 @@
         <v>16916025.69007904</v>
       </c>
       <c r="G52">
-        <v>85.02168081992706</v>
+        <v>69.47909325878825</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -1639,10 +1630,10 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B53">
-        <v>5.360782815762708</v>
+        <v>8.895545003238627</v>
       </c>
       <c r="C53">
         <v>12.5</v>
@@ -1657,9 +1648,35 @@
         <v>16916025.69007904</v>
       </c>
       <c r="G53">
-        <v>51.23719419609455</v>
+        <v>85.02168106323279</v>
       </c>
       <c r="H53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" t="s">
+        <v>103</v>
+      </c>
+      <c r="B54">
+        <v>5.360782816054783</v>
+      </c>
+      <c r="C54">
+        <v>12.5</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>16916025.69007904</v>
+      </c>
+      <c r="G54">
+        <v>51.23719419888614</v>
+      </c>
+      <c r="H54">
         <v>0</v>
       </c>
     </row>
@@ -1678,58 +1695,58 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="M1" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -1737,31 +1754,31 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F2">
-        <v>99.79763109511583</v>
+        <v>99.81295175680319</v>
       </c>
       <c r="G2">
         <v>650</v>
       </c>
       <c r="H2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I2">
         <v>9.525</v>
       </c>
       <c r="J2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K2">
         <v>8.758481331682836</v>
@@ -1773,19 +1790,19 @@
         <v>24.85484</v>
       </c>
       <c r="N2">
-        <v>8758481.331682835</v>
+        <v>8700000</v>
       </c>
       <c r="O2">
-        <v>7884835.568368474</v>
+        <v>7819724.382593237</v>
       </c>
       <c r="P2">
-        <v>10.24129189350142</v>
+        <v>10.32605413850801</v>
       </c>
       <c r="Q2">
-        <v>0.01672486355157791</v>
+        <v>0.01686842048121249</v>
       </c>
       <c r="R2">
-        <v>22.21157164823014</v>
+        <v>22.30158356243836</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1793,31 +1810,31 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F3">
-        <v>99.79759397852898</v>
+        <v>99.81291331366339</v>
       </c>
       <c r="G3">
         <v>650</v>
       </c>
       <c r="H3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I3">
         <v>9.525</v>
       </c>
       <c r="J3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K3">
         <v>8.758481331682836</v>
@@ -1829,19 +1846,19 @@
         <v>18.64113</v>
       </c>
       <c r="N3">
-        <v>7884835.568368474</v>
+        <v>7819724.382593237</v>
       </c>
       <c r="O3">
-        <v>7161888.051531184</v>
+        <v>7090074.234681786</v>
       </c>
       <c r="P3">
-        <v>11.24961023902875</v>
+        <v>11.36273201397222</v>
       </c>
       <c r="Q3">
-        <v>0.01843458808971203</v>
+        <v>0.01862641434866013</v>
       </c>
       <c r="R3">
-        <v>23.27933662940692</v>
+        <v>23.39428768129407</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1849,31 +1866,31 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F4">
-        <v>99.49957199728419</v>
+        <v>99.49957234921122</v>
       </c>
       <c r="G4">
         <v>650</v>
       </c>
       <c r="H4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I4">
         <v>9.525</v>
       </c>
       <c r="J4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K4">
         <v>8.758481331682836</v>
@@ -1888,16 +1905,16 @@
         <v>8758481.331682835</v>
       </c>
       <c r="O4">
-        <v>8082316.078656502</v>
+        <v>8082316.077222004</v>
       </c>
       <c r="P4">
-        <v>9.967205704129382</v>
+        <v>9.967205823498649</v>
       </c>
       <c r="Q4">
-        <v>0.01626231380115951</v>
+        <v>0.01626231399602838</v>
       </c>
       <c r="R4">
-        <v>21.94531942521573</v>
+        <v>21.94531942711388</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1905,31 +1922,31 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F5">
-        <v>81.84123903874064</v>
+        <v>81.84123933324393</v>
       </c>
       <c r="G5">
         <v>650</v>
       </c>
       <c r="H5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I5">
         <v>9.525</v>
       </c>
       <c r="J5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K5">
         <v>8.758481331682836</v>
@@ -1941,19 +1958,19 @@
         <v>30.1364935</v>
       </c>
       <c r="N5">
-        <v>8082316.078656502</v>
+        <v>8082316.077222004</v>
       </c>
       <c r="O5">
-        <v>7307091.366083596</v>
+        <v>7307091.362853918</v>
       </c>
       <c r="P5">
-        <v>9.046131669769773</v>
+        <v>9.04613178923314</v>
       </c>
       <c r="Q5">
-        <v>0.01481344650300219</v>
+        <v>0.01481344669885771</v>
       </c>
       <c r="R5">
-        <v>23.05213466019685</v>
+        <v>23.05213466517455</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1961,31 +1978,31 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C6" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D6" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E6" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F6">
-        <v>81.84123788468474</v>
+        <v>81.84123815435682</v>
       </c>
       <c r="G6">
         <v>650</v>
       </c>
       <c r="H6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I6">
         <v>9.525</v>
       </c>
       <c r="J6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K6">
         <v>8.758481331682836</v>
@@ -1997,19 +2014,19 @@
         <v>31.06855</v>
       </c>
       <c r="N6">
-        <v>7307091.366083596</v>
+        <v>7307091.362853918</v>
       </c>
       <c r="O6">
-        <v>6413000.63178612</v>
+        <v>6413000.626355875</v>
       </c>
       <c r="P6">
-        <v>10.27790997234524</v>
+        <v>10.27791011159804</v>
       </c>
       <c r="Q6">
-        <v>0.01690442054378284</v>
+        <v>0.0169044207732783</v>
       </c>
       <c r="R6">
-        <v>24.57152435804353</v>
+        <v>24.57152436822689</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2017,31 +2034,31 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F7">
-        <v>81.4587878907586</v>
+        <v>81.45878789346791</v>
       </c>
       <c r="G7">
         <v>650</v>
       </c>
       <c r="H7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I7">
         <v>9.525</v>
       </c>
       <c r="J7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K7">
         <v>8.758481331682836</v>
@@ -2056,16 +2073,16 @@
         <v>8758481.331682835</v>
       </c>
       <c r="O7">
-        <v>8031012.383007168</v>
+        <v>8031012.382994156</v>
       </c>
       <c r="P7">
-        <v>8.2108043292135</v>
+        <v>8.210804330233705</v>
       </c>
       <c r="Q7">
-        <v>0.01339978950169512</v>
+        <v>0.01339978950336088</v>
       </c>
       <c r="R7">
-        <v>22.01353407166664</v>
+        <v>22.01353407168403</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -2073,31 +2090,31 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C8" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D8" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E8" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F8">
-        <v>81.45878786227992</v>
+        <v>81.45878787410066</v>
       </c>
       <c r="G8">
         <v>650</v>
       </c>
       <c r="H8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I8">
         <v>9.525</v>
       </c>
       <c r="J8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K8">
         <v>8.758481331682836</v>
@@ -2109,19 +2126,19 @@
         <v>31.06855</v>
       </c>
       <c r="N8">
-        <v>8031012.383007168</v>
+        <v>8031012.382994156</v>
       </c>
       <c r="O8">
-        <v>7232737.00398096</v>
+        <v>7232737.003907331</v>
       </c>
       <c r="P8">
-        <v>9.094293664429228</v>
+        <v>9.094293669755324</v>
       </c>
       <c r="Q8">
-        <v>0.0148976219421095</v>
+        <v>0.0148976219508396</v>
       </c>
       <c r="R8">
-        <v>23.16761919114638</v>
+        <v>23.16761919126162</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2129,16 +2146,16 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C9" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D9" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E9" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F9">
         <v>81.2283172755494</v>
@@ -2147,13 +2164,13 @@
         <v>650</v>
       </c>
       <c r="H9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I9">
         <v>9.525</v>
       </c>
       <c r="J9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K9">
         <v>8.758481331682836</v>
@@ -2185,16 +2202,16 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C10" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D10" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E10" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F10">
         <v>81.22831727261871</v>
@@ -2203,13 +2220,13 @@
         <v>650</v>
       </c>
       <c r="H10" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I10">
         <v>9.525</v>
       </c>
       <c r="J10" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K10">
         <v>8.758481331682836</v>
@@ -2251,72 +2268,72 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="B2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F2">
         <v>70</v>
@@ -2325,16 +2342,16 @@
         <v>43.49597</v>
       </c>
       <c r="H2">
-        <v>1.222929103144848</v>
+        <v>1.235315885529079</v>
       </c>
       <c r="I2">
-        <v>66.07690792386252</v>
+        <v>69.47909325878825</v>
       </c>
       <c r="J2">
-        <v>6.913414328686582</v>
+        <v>7.269374036583699</v>
       </c>
       <c r="K2">
-        <v>9271.026883055281</v>
+        <v>9748.375970539471</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -2360,16 +2377,16 @@
     </row>
     <row r="3" spans="1:18">
       <c r="B3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F3">
         <v>200</v>
@@ -2378,16 +2395,16 @@
         <v>124.2742</v>
       </c>
       <c r="H3">
-        <v>1.365738417094692</v>
+        <v>1.365738418251139</v>
       </c>
       <c r="I3">
-        <v>85.02168081992706</v>
+        <v>85.02168106323279</v>
       </c>
       <c r="J3">
-        <v>8.895544977782331</v>
+        <v>8.895545003238627</v>
       </c>
       <c r="K3">
-        <v>11929.10372610566</v>
+        <v>11929.10376024306</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -2413,16 +2430,16 @@
     </row>
     <row r="4" spans="1:18">
       <c r="B4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F4">
         <v>300</v>
@@ -2431,16 +2448,16 @@
         <v>186.4113</v>
       </c>
       <c r="H4">
-        <v>1.210949786624633</v>
+        <v>1.210949786636961</v>
       </c>
       <c r="I4">
-        <v>51.23719419609455</v>
+        <v>51.23719419888614</v>
       </c>
       <c r="J4">
-        <v>5.360782815762708</v>
+        <v>5.360782816054783</v>
       </c>
       <c r="K4">
-        <v>7188.916971594107</v>
+        <v>7188.916971985785</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -2479,39 +2496,39 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B2">
-        <v>8758481.331682835</v>
+        <v>8700000</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B3">
-        <v>7884835.568368474</v>
+        <v>7819724.382593237</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B4">
-        <v>7161888.051531184</v>
+        <v>7090074.234681786</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B5">
         <v>8758481.331682835</v>
@@ -2519,31 +2536,31 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B6">
-        <v>8082316.078656502</v>
+        <v>8082316.077222004</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B7">
-        <v>7307091.366083596</v>
+        <v>7307091.362853918</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B8">
-        <v>6413000.63178612</v>
+        <v>6413000.626355875</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B9">
         <v>8758481.331682835</v>
@@ -2551,23 +2568,23 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B10">
-        <v>8031012.383007168</v>
+        <v>8031012.382994156</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B11">
-        <v>7232737.00398096</v>
+        <v>7232737.003907331</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B12">
         <v>8758481.331682835</v>
@@ -2575,7 +2592,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B13">
         <v>8035208.523622232</v>
@@ -2583,7 +2600,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B14">
         <v>7242028.792570359</v>
@@ -2604,36 +2621,36 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B2">
         <v>17.65832997587177</v>
       </c>
       <c r="C2">
-        <v>17.65833295854355</v>
+        <v>17.65833301596729</v>
       </c>
       <c r="D2">
         <v>65.15454188318284</v>
@@ -2642,15 +2659,15 @@
         <v>1150.5204</v>
       </c>
       <c r="F2">
-        <v>1150.520594334614</v>
+        <v>1150.520598076031</v>
       </c>
       <c r="G2">
-        <v>1.689101852696311E-05</v>
+        <v>1.721621198185053E-05</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B3">
         <v>45.91165732334162</v>
@@ -2673,7 +2690,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B4">
         <v>35.31665995174353</v>

--- a/examples/wangetal2018/out/ResultFiles/DR_0.5_b.xlsx
+++ b/examples/wangetal2018/out/ResultFiles/DR_0.5_b.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="197">
   <si>
     <t xml:space="preserve">
 ---------DISCLAIMER---------
@@ -414,9 +414,87 @@
     <t>PI09</t>
   </si>
   <si>
+    <t>PI01_0</t>
+  </si>
+  <si>
+    <t>PI01_1</t>
+  </si>
+  <si>
+    <t>PI02_0</t>
+  </si>
+  <si>
+    <t>PI03_0</t>
+  </si>
+  <si>
+    <t>PI04_0</t>
+  </si>
+  <si>
+    <t>PI04_1</t>
+  </si>
+  <si>
+    <t>PI05_0</t>
+  </si>
+  <si>
+    <t>PI05_1</t>
+  </si>
+  <si>
+    <t>PI06_0</t>
+  </si>
+  <si>
+    <t>PI06_1</t>
+  </si>
+  <si>
+    <t>PI07_0</t>
+  </si>
+  <si>
+    <t>PI07_1</t>
+  </si>
+  <si>
+    <t>PI08_0</t>
+  </si>
+  <si>
+    <t>PI08_1</t>
+  </si>
+  <si>
+    <t>PI09_0</t>
+  </si>
+  <si>
+    <t>PI09_1</t>
+  </si>
+  <si>
+    <t>N01_1</t>
+  </si>
+  <si>
+    <t>N02_0</t>
+  </si>
+  <si>
+    <t>N03_C_0</t>
+  </si>
+  <si>
+    <t>N04_1</t>
+  </si>
+  <si>
+    <t>N05_1</t>
+  </si>
+  <si>
+    <t>N06_C_1</t>
+  </si>
+  <si>
+    <t>N07_1</t>
+  </si>
+  <si>
+    <t>N08_C_1</t>
+  </si>
+  <si>
+    <t>N09_1</t>
+  </si>
+  <si>
     <t>N01</t>
   </si>
   <si>
+    <t>N01_0</t>
+  </si>
+  <si>
     <t>N02</t>
   </si>
   <si>
@@ -426,19 +504,37 @@
     <t>N04</t>
   </si>
   <si>
+    <t>N04_0</t>
+  </si>
+  <si>
     <t>N05</t>
   </si>
   <si>
+    <t>N05_0</t>
+  </si>
+  <si>
     <t>N06_C</t>
   </si>
   <si>
+    <t>N06_C_0</t>
+  </si>
+  <si>
     <t>N07</t>
   </si>
   <si>
+    <t>N07_0</t>
+  </si>
+  <si>
     <t>N08_C</t>
   </si>
   <si>
+    <t>N08_C_0</t>
+  </si>
+  <si>
     <t>N09</t>
+  </si>
+  <si>
+    <t>N09_0</t>
   </si>
   <si>
     <t>N03</t>
@@ -1141,7 +1237,7 @@
         <v>37</v>
       </c>
       <c r="B2">
-        <v>0.2175510305120462</v>
+        <v>0.2220522144561529</v>
       </c>
       <c r="C2" t="s">
         <v>69</v>
@@ -1174,7 +1270,7 @@
         <v>40</v>
       </c>
       <c r="B5">
-        <v>0.03246992892864016</v>
+        <v>0.03252863452822259</v>
       </c>
       <c r="C5" t="s">
         <v>69</v>
@@ -1196,7 +1292,7 @@
         <v>42</v>
       </c>
       <c r="B7">
-        <v>0.006709697858712112</v>
+        <v>0.006721828985844493</v>
       </c>
       <c r="C7" t="s">
         <v>69</v>
@@ -1207,7 +1303,7 @@
         <v>43</v>
       </c>
       <c r="B8">
-        <v>0.01590742577887298</v>
+        <v>0.01593618638904291</v>
       </c>
       <c r="C8" t="s">
         <v>69</v>
@@ -1229,7 +1325,7 @@
         <v>45</v>
       </c>
       <c r="B10">
-        <v>0.01701801172198347</v>
+        <v>0.01701801172198348</v>
       </c>
       <c r="C10" t="s">
         <v>69</v>
@@ -1240,7 +1336,7 @@
         <v>46</v>
       </c>
       <c r="B11">
-        <v>0.1267819392557069</v>
+        <v>0.1310912888894297</v>
       </c>
       <c r="C11" t="s">
         <v>69</v>
@@ -1284,7 +1380,7 @@
         <v>50</v>
       </c>
       <c r="B15">
-        <v>0.002370178938174385</v>
+        <v>0.002392684857894918</v>
       </c>
       <c r="C15" t="s">
         <v>69</v>
@@ -1295,7 +1391,7 @@
         <v>51</v>
       </c>
       <c r="B16">
-        <v>0.0152858270694272</v>
+        <v>0.01532941219718393</v>
       </c>
       <c r="C16" t="s">
         <v>69</v>
@@ -1306,7 +1402,7 @@
         <v>52</v>
       </c>
       <c r="B17">
-        <v>0.001008020960529054</v>
+        <v>0.001034166886550859</v>
       </c>
       <c r="C17" t="s">
         <v>69</v>
@@ -1413,7 +1509,7 @@
         <v>61</v>
       </c>
       <c r="B27">
-        <v>4937.711244501772</v>
+        <v>5105.545277234198</v>
       </c>
       <c r="C27" t="s">
         <v>71</v>
@@ -1424,7 +1520,7 @@
         <v>61</v>
       </c>
       <c r="B28">
-        <v>205.7379685209072</v>
+        <v>212.7310532180916</v>
       </c>
       <c r="C28" t="s">
         <v>72</v>
@@ -1531,7 +1627,7 @@
         <v>650</v>
       </c>
       <c r="B41">
-        <v>400</v>
+        <v>400.0000000000002</v>
       </c>
       <c r="C41" t="s">
         <v>84</v>
@@ -1607,7 +1703,7 @@
         <v>101</v>
       </c>
       <c r="B52">
-        <v>7.269374036583699</v>
+        <v>7.499498857957379</v>
       </c>
       <c r="C52">
         <v>12.5</v>
@@ -1622,7 +1718,7 @@
         <v>16916025.69007904</v>
       </c>
       <c r="G52">
-        <v>69.47909325878825</v>
+        <v>71.67857616404511</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -1633,7 +1729,7 @@
         <v>102</v>
       </c>
       <c r="B53">
-        <v>8.895545003238627</v>
+        <v>9.222789741339913</v>
       </c>
       <c r="C53">
         <v>12.5</v>
@@ -1648,7 +1744,7 @@
         <v>16916025.69007904</v>
       </c>
       <c r="G53">
-        <v>85.02168106323279</v>
+        <v>88.14941497299763</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -1659,7 +1755,7 @@
         <v>103</v>
       </c>
       <c r="B54">
-        <v>5.360782816054783</v>
+        <v>5.535077214023781</v>
       </c>
       <c r="C54">
         <v>12.5</v>
@@ -1674,7 +1770,7 @@
         <v>16916025.69007904</v>
       </c>
       <c r="G54">
-        <v>51.23719419888614</v>
+        <v>52.90306208104885</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -1687,7 +1783,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1757,16 +1853,16 @@
         <v>120</v>
       </c>
       <c r="C2" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="D2" t="s">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="E2" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="F2">
-        <v>99.81295175680319</v>
+        <v>99.84249374437579</v>
       </c>
       <c r="G2">
         <v>650</v>
@@ -1784,25 +1880,25 @@
         <v>8.758481331682836</v>
       </c>
       <c r="L2">
-        <v>40</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="M2">
-        <v>24.85484</v>
+        <v>8.284946666666665</v>
       </c>
       <c r="N2">
-        <v>8700000</v>
+        <v>8116015.684046027</v>
       </c>
       <c r="O2">
-        <v>7819724.382593237</v>
+        <v>7807886.419022754</v>
       </c>
       <c r="P2">
-        <v>10.32605413850801</v>
+        <v>9.46328934177704</v>
       </c>
       <c r="Q2">
-        <v>0.01686842048121249</v>
+        <v>0.01536162002624769</v>
       </c>
       <c r="R2">
-        <v>22.30158356243836</v>
+        <v>22.46083199534299</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1813,16 +1909,16 @@
         <v>121</v>
       </c>
       <c r="C3" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="D3" t="s">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="E3" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="F3">
-        <v>99.81291331366339</v>
+        <v>99.84250330822508</v>
       </c>
       <c r="G3">
         <v>650</v>
@@ -1840,25 +1936,25 @@
         <v>8.758481331682836</v>
       </c>
       <c r="L3">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M3">
-        <v>18.64113</v>
+        <v>9.320565</v>
       </c>
       <c r="N3">
-        <v>7819724.382593237</v>
+        <v>7446192.073158038</v>
       </c>
       <c r="O3">
-        <v>7090074.234681786</v>
+        <v>7066192.998356738</v>
       </c>
       <c r="P3">
-        <v>11.36273201397222</v>
+        <v>9.481440271392788</v>
       </c>
       <c r="Q3">
-        <v>0.01862641434866013</v>
+        <v>0.01543488790046009</v>
       </c>
       <c r="R3">
-        <v>23.39428768129407</v>
+        <v>23.59900043735062</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1869,16 +1965,16 @@
         <v>122</v>
       </c>
       <c r="C4" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="D4" t="s">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="E4" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="F4">
-        <v>99.49957234921122</v>
+        <v>99.52109656639932</v>
       </c>
       <c r="G4">
         <v>650</v>
@@ -1896,25 +1992,25 @@
         <v>8.758481331682836</v>
       </c>
       <c r="L4">
-        <v>31.5</v>
+        <v>15.75</v>
       </c>
       <c r="M4">
-        <v>19.5731865</v>
+        <v>9.786593249999999</v>
       </c>
       <c r="N4">
-        <v>8758481.331682835</v>
+        <v>8422928.903666575</v>
       </c>
       <c r="O4">
-        <v>8082316.077222004</v>
+        <v>8073653.567907586</v>
       </c>
       <c r="P4">
-        <v>9.967205823498649</v>
+        <v>9.3703270936452</v>
       </c>
       <c r="Q4">
-        <v>0.01626231399602838</v>
+        <v>0.01519511078645022</v>
       </c>
       <c r="R4">
-        <v>21.94531942711388</v>
+        <v>22.09256317143708</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1925,16 +2021,16 @@
         <v>123</v>
       </c>
       <c r="C5" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="D5" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="E5" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="F5">
-        <v>81.84123933324393</v>
+        <v>81.86276945898135</v>
       </c>
       <c r="G5">
         <v>650</v>
@@ -1952,25 +2048,25 @@
         <v>8.758481331682836</v>
       </c>
       <c r="L5">
-        <v>48.5</v>
+        <v>16.16666666666667</v>
       </c>
       <c r="M5">
-        <v>30.1364935</v>
+        <v>10.04549783333334</v>
       </c>
       <c r="N5">
-        <v>8082316.077222004</v>
+        <v>7557855.447434981</v>
       </c>
       <c r="O5">
-        <v>7307091.362853918</v>
+        <v>7286429.072950092</v>
       </c>
       <c r="P5">
-        <v>9.04613178923314</v>
+        <v>7.731269336984526</v>
       </c>
       <c r="Q5">
-        <v>0.01481344669885771</v>
+        <v>0.01257511372921997</v>
       </c>
       <c r="R5">
-        <v>23.05213466517455</v>
+        <v>23.24272354514512</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1981,16 +2077,16 @@
         <v>124</v>
       </c>
       <c r="C6" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="D6" t="s">
-        <v>139</v>
+        <v>171</v>
       </c>
       <c r="E6" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="F6">
-        <v>81.84123815435682</v>
+        <v>81.86276978709664</v>
       </c>
       <c r="G6">
         <v>650</v>
@@ -2008,25 +2104,25 @@
         <v>8.758481331682836</v>
       </c>
       <c r="L6">
-        <v>50</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="M6">
-        <v>31.06855</v>
+        <v>10.35618333333334</v>
       </c>
       <c r="N6">
-        <v>7307091.362853918</v>
+        <v>6692431.354052545</v>
       </c>
       <c r="O6">
-        <v>6413000.626355875</v>
+        <v>6374859.391618722</v>
       </c>
       <c r="P6">
-        <v>10.27791011159804</v>
+        <v>7.755808573769697</v>
       </c>
       <c r="Q6">
-        <v>0.0169044207732783</v>
+        <v>0.01265892782464551</v>
       </c>
       <c r="R6">
-        <v>24.57152436822689</v>
+        <v>24.83757433154979</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2037,16 +2133,16 @@
         <v>125</v>
       </c>
       <c r="C7" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="D7" t="s">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="E7" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="F7">
-        <v>81.45878789346791</v>
+        <v>81.46628085712634</v>
       </c>
       <c r="G7">
         <v>650</v>
@@ -2064,25 +2160,25 @@
         <v>8.758481331682836</v>
       </c>
       <c r="L7">
-        <v>50</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="M7">
-        <v>31.06855</v>
+        <v>10.35618333333334</v>
       </c>
       <c r="N7">
-        <v>8758481.331682835</v>
+        <v>8274558.530366185</v>
       </c>
       <c r="O7">
-        <v>8031012.382994156</v>
+        <v>8021815.35225715</v>
       </c>
       <c r="P7">
-        <v>8.210804330233705</v>
+        <v>7.680634990082728</v>
       </c>
       <c r="Q7">
-        <v>0.01339978950336088</v>
+        <v>0.01245755845332074</v>
       </c>
       <c r="R7">
-        <v>22.01353407168403</v>
+        <v>22.16293886823648</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -2093,16 +2189,16 @@
         <v>126</v>
       </c>
       <c r="C8" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="D8" t="s">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="E8" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="F8">
-        <v>81.45878787410066</v>
+        <v>81.46628086764271</v>
       </c>
       <c r="G8">
         <v>650</v>
@@ -2120,25 +2216,25 @@
         <v>8.758481331682836</v>
       </c>
       <c r="L8">
-        <v>50</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="M8">
-        <v>31.06855</v>
+        <v>10.35618333333334</v>
       </c>
       <c r="N8">
-        <v>8031012.382994156</v>
+        <v>7491110.719239343</v>
       </c>
       <c r="O8">
-        <v>7232737.003907331</v>
+        <v>7211282.246067458</v>
       </c>
       <c r="P8">
-        <v>9.094293669755324</v>
+        <v>7.704894696977914</v>
       </c>
       <c r="Q8">
-        <v>0.0148976219508396</v>
+        <v>0.01253581466151843</v>
       </c>
       <c r="R8">
-        <v>23.16761919126162</v>
+        <v>23.36246889725498</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2149,16 +2245,16 @@
         <v>127</v>
       </c>
       <c r="C9" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="D9" t="s">
-        <v>137</v>
+        <v>168</v>
       </c>
       <c r="E9" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="F9">
-        <v>81.2283172755494</v>
+        <v>81.22831727410751</v>
       </c>
       <c r="G9">
         <v>650</v>
@@ -2176,25 +2272,25 @@
         <v>8.758481331682836</v>
       </c>
       <c r="L9">
-        <v>50</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="M9">
-        <v>31.06855</v>
+        <v>10.35618333333334</v>
       </c>
       <c r="N9">
-        <v>8758481.331682835</v>
+        <v>8277398.373416154</v>
       </c>
       <c r="O9">
-        <v>8035208.523622232</v>
+        <v>8026207.197355519</v>
       </c>
       <c r="P9">
-        <v>8.183405372037651</v>
+        <v>7.658199836841772</v>
       </c>
       <c r="Q9">
-        <v>0.01335481503561002</v>
+        <v>0.01242095934228911</v>
       </c>
       <c r="R9">
-        <v>22.00792998580562</v>
+        <v>22.15695039596588</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -2205,16 +2301,16 @@
         <v>128</v>
       </c>
       <c r="C10" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="D10" t="s">
-        <v>141</v>
+        <v>173</v>
       </c>
       <c r="E10" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="F10">
-        <v>81.22831727261871</v>
+        <v>81.22831727401191</v>
       </c>
       <c r="G10">
         <v>650</v>
@@ -2232,25 +2328,921 @@
         <v>8.758481331682836</v>
       </c>
       <c r="L10">
-        <v>50</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="M10">
-        <v>31.06855</v>
+        <v>10.35618333333334</v>
       </c>
       <c r="N10">
-        <v>8035208.523622232</v>
+        <v>7498940.920289172</v>
       </c>
       <c r="O10">
-        <v>7242028.792570359</v>
+        <v>7221038.466517587</v>
       </c>
       <c r="P10">
-        <v>9.057192267726467</v>
+        <v>7.682388677641129</v>
       </c>
       <c r="Q10">
-        <v>0.01483618333967321</v>
+        <v>0.01249873002705697</v>
       </c>
       <c r="R10">
-        <v>23.15308983834977</v>
+        <v>23.34681789869666</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E11" t="s">
+        <v>174</v>
+      </c>
+      <c r="F11">
+        <v>99.84248200010335</v>
+      </c>
+      <c r="G11">
+        <v>650</v>
+      </c>
+      <c r="H11" t="s">
+        <v>85</v>
+      </c>
+      <c r="I11">
+        <v>9.525</v>
+      </c>
+      <c r="J11" t="s">
+        <v>84</v>
+      </c>
+      <c r="K11">
+        <v>8.758481331682836</v>
+      </c>
+      <c r="L11">
+        <v>13.33333333333333</v>
+      </c>
+      <c r="M11">
+        <v>8.284946666666665</v>
+      </c>
+      <c r="N11">
+        <v>8700000</v>
+      </c>
+      <c r="O11">
+        <v>8413001.954815762</v>
+      </c>
+      <c r="P11">
+        <v>9.447241847693668</v>
+      </c>
+      <c r="Q11">
+        <v>0.01529984041072968</v>
+      </c>
+      <c r="R11">
+        <v>21.64838426387879</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D12" t="s">
+        <v>145</v>
+      </c>
+      <c r="E12" t="s">
+        <v>174</v>
+      </c>
+      <c r="F12">
+        <v>99.84248858912379</v>
+      </c>
+      <c r="G12">
+        <v>650</v>
+      </c>
+      <c r="H12" t="s">
+        <v>85</v>
+      </c>
+      <c r="I12">
+        <v>9.525</v>
+      </c>
+      <c r="J12" t="s">
+        <v>84</v>
+      </c>
+      <c r="K12">
+        <v>8.758481331682836</v>
+      </c>
+      <c r="L12">
+        <v>13.33333333333333</v>
+      </c>
+      <c r="M12">
+        <v>8.284946666666665</v>
+      </c>
+      <c r="N12">
+        <v>8413001.954815762</v>
+      </c>
+      <c r="O12">
+        <v>8116015.684046027</v>
+      </c>
+      <c r="P12">
+        <v>9.455255536493647</v>
+      </c>
+      <c r="Q12">
+        <v>0.01533034336922904</v>
+      </c>
+      <c r="R12">
+        <v>22.03554736930271</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C13" t="s">
+        <v>156</v>
+      </c>
+      <c r="D13" t="s">
+        <v>146</v>
+      </c>
+      <c r="E13" t="s">
+        <v>174</v>
+      </c>
+      <c r="F13">
+        <v>99.84249832711458</v>
+      </c>
+      <c r="G13">
+        <v>650</v>
+      </c>
+      <c r="H13" t="s">
+        <v>85</v>
+      </c>
+      <c r="I13">
+        <v>9.525</v>
+      </c>
+      <c r="J13" t="s">
+        <v>84</v>
+      </c>
+      <c r="K13">
+        <v>8.758481331682836</v>
+      </c>
+      <c r="L13">
+        <v>15</v>
+      </c>
+      <c r="M13">
+        <v>9.320565</v>
+      </c>
+      <c r="N13">
+        <v>7807886.419022754</v>
+      </c>
+      <c r="O13">
+        <v>7446192.073158038</v>
+      </c>
+      <c r="P13">
+        <v>9.472351655788497</v>
+      </c>
+      <c r="Q13">
+        <v>0.01539772592978768</v>
+      </c>
+      <c r="R13">
+        <v>22.99414300876159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>132</v>
+      </c>
+      <c r="C14" t="s">
+        <v>157</v>
+      </c>
+      <c r="D14" t="s">
+        <v>147</v>
+      </c>
+      <c r="E14" t="s">
+        <v>174</v>
+      </c>
+      <c r="F14">
+        <v>99.52109635564868</v>
+      </c>
+      <c r="G14">
+        <v>650</v>
+      </c>
+      <c r="H14" t="s">
+        <v>85</v>
+      </c>
+      <c r="I14">
+        <v>9.525</v>
+      </c>
+      <c r="J14" t="s">
+        <v>84</v>
+      </c>
+      <c r="K14">
+        <v>8.758481331682836</v>
+      </c>
+      <c r="L14">
+        <v>15.75</v>
+      </c>
+      <c r="M14">
+        <v>9.786593249999999</v>
+      </c>
+      <c r="N14">
+        <v>8758481.331682835</v>
+      </c>
+      <c r="O14">
+        <v>8422928.903666575</v>
+      </c>
+      <c r="P14">
+        <v>9.361087031659673</v>
+      </c>
+      <c r="Q14">
+        <v>0.01515972931685799</v>
+      </c>
+      <c r="R14">
+        <v>21.63581092867384</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>133</v>
+      </c>
+      <c r="C15" t="s">
+        <v>158</v>
+      </c>
+      <c r="D15" t="s">
+        <v>159</v>
+      </c>
+      <c r="E15" t="s">
+        <v>174</v>
+      </c>
+      <c r="F15">
+        <v>81.8627692779945</v>
+      </c>
+      <c r="G15">
+        <v>650</v>
+      </c>
+      <c r="H15" t="s">
+        <v>85</v>
+      </c>
+      <c r="I15">
+        <v>9.525</v>
+      </c>
+      <c r="J15" t="s">
+        <v>84</v>
+      </c>
+      <c r="K15">
+        <v>8.758481331682836</v>
+      </c>
+      <c r="L15">
+        <v>16.16666666666667</v>
+      </c>
+      <c r="M15">
+        <v>10.04549783333334</v>
+      </c>
+      <c r="N15">
+        <v>8073653.567907586</v>
+      </c>
+      <c r="O15">
+        <v>7819960.867850869</v>
+      </c>
+      <c r="P15">
+        <v>7.715546726911389</v>
+      </c>
+      <c r="Q15">
+        <v>0.01252396375453663</v>
+      </c>
+      <c r="R15">
+        <v>22.44366300345734</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" t="s">
+        <v>159</v>
+      </c>
+      <c r="D16" t="s">
+        <v>148</v>
+      </c>
+      <c r="E16" t="s">
+        <v>174</v>
+      </c>
+      <c r="F16">
+        <v>81.86276937816469</v>
+      </c>
+      <c r="G16">
+        <v>650</v>
+      </c>
+      <c r="H16" t="s">
+        <v>85</v>
+      </c>
+      <c r="I16">
+        <v>9.525</v>
+      </c>
+      <c r="J16" t="s">
+        <v>84</v>
+      </c>
+      <c r="K16">
+        <v>8.758481331682836</v>
+      </c>
+      <c r="L16">
+        <v>16.16666666666667</v>
+      </c>
+      <c r="M16">
+        <v>10.04549783333334</v>
+      </c>
+      <c r="N16">
+        <v>7819960.867850869</v>
+      </c>
+      <c r="O16">
+        <v>7557855.447434981</v>
+      </c>
+      <c r="P16">
+        <v>7.723395962474108</v>
+      </c>
+      <c r="Q16">
+        <v>0.01254927044372945</v>
+      </c>
+      <c r="R16">
+        <v>22.82545649146767</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>135</v>
+      </c>
+      <c r="C17" t="s">
+        <v>160</v>
+      </c>
+      <c r="D17" t="s">
+        <v>161</v>
+      </c>
+      <c r="E17" t="s">
+        <v>174</v>
+      </c>
+      <c r="F17">
+        <v>81.86276963709922</v>
+      </c>
+      <c r="G17">
+        <v>650</v>
+      </c>
+      <c r="H17" t="s">
+        <v>85</v>
+      </c>
+      <c r="I17">
+        <v>9.525</v>
+      </c>
+      <c r="J17" t="s">
+        <v>84</v>
+      </c>
+      <c r="K17">
+        <v>8.758481331682836</v>
+      </c>
+      <c r="L17">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M17">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N17">
+        <v>7286429.072950092</v>
+      </c>
+      <c r="O17">
+        <v>6995690.30876994</v>
+      </c>
+      <c r="P17">
+        <v>7.739411651529593</v>
+      </c>
+      <c r="Q17">
+        <v>0.01260240853611294</v>
+      </c>
+      <c r="R17">
+        <v>23.71672463466174</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C18" t="s">
+        <v>161</v>
+      </c>
+      <c r="D18" t="s">
+        <v>149</v>
+      </c>
+      <c r="E18" t="s">
+        <v>174</v>
+      </c>
+      <c r="F18">
+        <v>81.86276968618735</v>
+      </c>
+      <c r="G18">
+        <v>650</v>
+      </c>
+      <c r="H18" t="s">
+        <v>85</v>
+      </c>
+      <c r="I18">
+        <v>9.525</v>
+      </c>
+      <c r="J18" t="s">
+        <v>84</v>
+      </c>
+      <c r="K18">
+        <v>8.758481331682836</v>
+      </c>
+      <c r="L18">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M18">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N18">
+        <v>6995690.30876994</v>
+      </c>
+      <c r="O18">
+        <v>6692431.354052545</v>
+      </c>
+      <c r="P18">
+        <v>7.747589360490355</v>
+      </c>
+      <c r="Q18">
+        <v>0.01263030082585787</v>
+      </c>
+      <c r="R18">
+        <v>24.24441215255315</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>137</v>
+      </c>
+      <c r="C19" t="s">
+        <v>162</v>
+      </c>
+      <c r="D19" t="s">
+        <v>163</v>
+      </c>
+      <c r="E19" t="s">
+        <v>174</v>
+      </c>
+      <c r="F19">
+        <v>81.46628085674811</v>
+      </c>
+      <c r="G19">
+        <v>650</v>
+      </c>
+      <c r="H19" t="s">
+        <v>85</v>
+      </c>
+      <c r="I19">
+        <v>9.525</v>
+      </c>
+      <c r="J19" t="s">
+        <v>84</v>
+      </c>
+      <c r="K19">
+        <v>8.758481331682836</v>
+      </c>
+      <c r="L19">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M19">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N19">
+        <v>8758481.331682835</v>
+      </c>
+      <c r="O19">
+        <v>8519906.513255803</v>
+      </c>
+      <c r="P19">
+        <v>7.664589319125652</v>
+      </c>
+      <c r="Q19">
+        <v>0.01240771396377322</v>
+      </c>
+      <c r="R19">
+        <v>21.51412182864234</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>138</v>
+      </c>
+      <c r="C20" t="s">
+        <v>163</v>
+      </c>
+      <c r="D20" t="s">
+        <v>150</v>
+      </c>
+      <c r="E20" t="s">
+        <v>174</v>
+      </c>
+      <c r="F20">
+        <v>81.46628085572726</v>
+      </c>
+      <c r="G20">
+        <v>650</v>
+      </c>
+      <c r="H20" t="s">
+        <v>85</v>
+      </c>
+      <c r="I20">
+        <v>9.525</v>
+      </c>
+      <c r="J20" t="s">
+        <v>84</v>
+      </c>
+      <c r="K20">
+        <v>8.758481331682836</v>
+      </c>
+      <c r="L20">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M20">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N20">
+        <v>8519906.513255803</v>
+      </c>
+      <c r="O20">
+        <v>8274558.530366185</v>
+      </c>
+      <c r="P20">
+        <v>7.672599497318726</v>
+      </c>
+      <c r="Q20">
+        <v>0.01243251964514327</v>
+      </c>
+      <c r="R20">
+        <v>21.82605112125663</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>139</v>
+      </c>
+      <c r="C21" t="s">
+        <v>164</v>
+      </c>
+      <c r="D21" t="s">
+        <v>165</v>
+      </c>
+      <c r="E21" t="s">
+        <v>174</v>
+      </c>
+      <c r="F21">
+        <v>81.46628085926805</v>
+      </c>
+      <c r="G21">
+        <v>650</v>
+      </c>
+      <c r="H21" t="s">
+        <v>85</v>
+      </c>
+      <c r="I21">
+        <v>9.525</v>
+      </c>
+      <c r="J21" t="s">
+        <v>84</v>
+      </c>
+      <c r="K21">
+        <v>8.758481331682836</v>
+      </c>
+      <c r="L21">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M21">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N21">
+        <v>8021815.35225715</v>
+      </c>
+      <c r="O21">
+        <v>7760952.154182715</v>
+      </c>
+      <c r="P21">
+        <v>7.688695930681842</v>
+      </c>
+      <c r="Q21">
+        <v>0.01248316697922483</v>
+      </c>
+      <c r="R21">
+        <v>22.52794532950607</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>140</v>
+      </c>
+      <c r="C22" t="s">
+        <v>165</v>
+      </c>
+      <c r="D22" t="s">
+        <v>151</v>
+      </c>
+      <c r="E22" t="s">
+        <v>174</v>
+      </c>
+      <c r="F22">
+        <v>81.46628086003395</v>
+      </c>
+      <c r="G22">
+        <v>650</v>
+      </c>
+      <c r="H22" t="s">
+        <v>85</v>
+      </c>
+      <c r="I22">
+        <v>9.525</v>
+      </c>
+      <c r="J22" t="s">
+        <v>84</v>
+      </c>
+      <c r="K22">
+        <v>8.758481331682836</v>
+      </c>
+      <c r="L22">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M22">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N22">
+        <v>7760952.154182715</v>
+      </c>
+      <c r="O22">
+        <v>7491110.719239343</v>
+      </c>
+      <c r="P22">
+        <v>7.69678245336538</v>
+      </c>
+      <c r="Q22">
+        <v>0.01250926971683284</v>
+      </c>
+      <c r="R22">
+        <v>22.9258327387522</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>141</v>
+      </c>
+      <c r="C23" t="s">
+        <v>166</v>
+      </c>
+      <c r="D23" t="s">
+        <v>167</v>
+      </c>
+      <c r="E23" t="s">
+        <v>174</v>
+      </c>
+      <c r="F23">
+        <v>81.22831727461987</v>
+      </c>
+      <c r="G23">
+        <v>650</v>
+      </c>
+      <c r="H23" t="s">
+        <v>85</v>
+      </c>
+      <c r="I23">
+        <v>9.525</v>
+      </c>
+      <c r="J23" t="s">
+        <v>84</v>
+      </c>
+      <c r="K23">
+        <v>8.758481331682836</v>
+      </c>
+      <c r="L23">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M23">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N23">
+        <v>8758481.331682835</v>
+      </c>
+      <c r="O23">
+        <v>8521286.261920173</v>
+      </c>
+      <c r="P23">
+        <v>7.642201035385788</v>
+      </c>
+      <c r="Q23">
+        <v>0.01237140556429809</v>
+      </c>
+      <c r="R23">
+        <v>21.51240528201961</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>142</v>
+      </c>
+      <c r="C24" t="s">
+        <v>167</v>
+      </c>
+      <c r="D24" t="s">
+        <v>152</v>
+      </c>
+      <c r="E24" t="s">
+        <v>174</v>
+      </c>
+      <c r="F24">
+        <v>81.22831727412577</v>
+      </c>
+      <c r="G24">
+        <v>650</v>
+      </c>
+      <c r="H24" t="s">
+        <v>85</v>
+      </c>
+      <c r="I24">
+        <v>9.525</v>
+      </c>
+      <c r="J24" t="s">
+        <v>84</v>
+      </c>
+      <c r="K24">
+        <v>8.758481331682836</v>
+      </c>
+      <c r="L24">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M24">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N24">
+        <v>8521286.261920173</v>
+      </c>
+      <c r="O24">
+        <v>8277398.373416154</v>
+      </c>
+      <c r="P24">
+        <v>7.650187816155493</v>
+      </c>
+      <c r="Q24">
+        <v>0.01239606580162123</v>
+      </c>
+      <c r="R24">
+        <v>21.82236264942035</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>143</v>
+      </c>
+      <c r="C25" t="s">
+        <v>168</v>
+      </c>
+      <c r="D25" t="s">
+        <v>169</v>
+      </c>
+      <c r="E25" t="s">
+        <v>174</v>
+      </c>
+      <c r="F25">
+        <v>81.22831727409383</v>
+      </c>
+      <c r="G25">
+        <v>650</v>
+      </c>
+      <c r="H25" t="s">
+        <v>85</v>
+      </c>
+      <c r="I25">
+        <v>9.525</v>
+      </c>
+      <c r="J25" t="s">
+        <v>84</v>
+      </c>
+      <c r="K25">
+        <v>8.758481331682836</v>
+      </c>
+      <c r="L25">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M25">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N25">
+        <v>8026207.197355519</v>
+      </c>
+      <c r="O25">
+        <v>7767001.52835057</v>
+      </c>
+      <c r="P25">
+        <v>7.666237230806654</v>
+      </c>
+      <c r="Q25">
+        <v>0.01244641791139907</v>
+      </c>
+      <c r="R25">
+        <v>22.5192612824379</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>144</v>
+      </c>
+      <c r="C26" t="s">
+        <v>169</v>
+      </c>
+      <c r="D26" t="s">
+        <v>153</v>
+      </c>
+      <c r="E26" t="s">
+        <v>174</v>
+      </c>
+      <c r="F26">
+        <v>81.22831727405887</v>
+      </c>
+      <c r="G26">
+        <v>650</v>
+      </c>
+      <c r="H26" t="s">
+        <v>85</v>
+      </c>
+      <c r="I26">
+        <v>9.525</v>
+      </c>
+      <c r="J26" t="s">
+        <v>84</v>
+      </c>
+      <c r="K26">
+        <v>8.758481331682836</v>
+      </c>
+      <c r="L26">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M26">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N26">
+        <v>7767001.52835057</v>
+      </c>
+      <c r="O26">
+        <v>7498940.920289172</v>
+      </c>
+      <c r="P26">
+        <v>7.674300132563858</v>
+      </c>
+      <c r="Q26">
+        <v>0.01247234975643298</v>
+      </c>
+      <c r="R26">
+        <v>22.91398842900221</v>
       </c>
     </row>
   </sheetData>
@@ -2268,7 +3260,7 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="2" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -2283,43 +3275,43 @@
         <v>108</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>94</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>100</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>152</v>
+        <v>184</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -2327,13 +3319,13 @@
         <v>101</v>
       </c>
       <c r="C2" t="s">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="D2" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="E2" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="F2">
         <v>70</v>
@@ -2342,16 +3334,16 @@
         <v>43.49597</v>
       </c>
       <c r="H2">
-        <v>1.235315885529079</v>
+        <v>1.239490816868382</v>
       </c>
       <c r="I2">
-        <v>69.47909325878825</v>
+        <v>71.67857616404511</v>
       </c>
       <c r="J2">
-        <v>7.269374036583699</v>
+        <v>7.499498857957379</v>
       </c>
       <c r="K2">
-        <v>9748.375970539471</v>
+        <v>10056.977958498</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -2380,13 +3372,13 @@
         <v>102</v>
       </c>
       <c r="C3" t="s">
-        <v>139</v>
+        <v>171</v>
       </c>
       <c r="D3" t="s">
-        <v>134</v>
+        <v>162</v>
       </c>
       <c r="E3" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="F3">
         <v>200</v>
@@ -2395,16 +3387,16 @@
         <v>124.2742</v>
       </c>
       <c r="H3">
-        <v>1.365738418251139</v>
+        <v>1.373909727828343</v>
       </c>
       <c r="I3">
-        <v>85.02168106323279</v>
+        <v>88.14941497299763</v>
       </c>
       <c r="J3">
-        <v>8.895545003238627</v>
+        <v>9.222789741339913</v>
       </c>
       <c r="K3">
-        <v>11929.10376024306</v>
+        <v>12367.94549893165</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -2433,31 +3425,31 @@
         <v>103</v>
       </c>
       <c r="C4" t="s">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="D4" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="E4" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="F4">
-        <v>300</v>
+        <v>300.0000000000001</v>
       </c>
       <c r="G4">
         <v>186.4113</v>
       </c>
       <c r="H4">
-        <v>1.210949786636961</v>
+        <v>1.214552562612442</v>
       </c>
       <c r="I4">
-        <v>51.23719419888614</v>
+        <v>52.90306208104885</v>
       </c>
       <c r="J4">
-        <v>5.360782816054783</v>
+        <v>5.535077214023781</v>
       </c>
       <c r="K4">
-        <v>7188.916971985785</v>
+        <v>7422.649245550171</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -2488,7 +3480,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2496,15 +3488,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="B2">
         <v>8700000</v>
@@ -2512,23 +3504,23 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="B3">
-        <v>7819724.382593237</v>
+        <v>7807886.419022754</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="B4">
-        <v>7090074.234681786</v>
+        <v>7066192.998356738</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="B5">
         <v>8758481.331682835</v>
@@ -2536,31 +3528,31 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="B6">
-        <v>8082316.077222004</v>
+        <v>8073653.567907586</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="B7">
-        <v>7307091.362853918</v>
+        <v>7286429.072950092</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>139</v>
+        <v>171</v>
       </c>
       <c r="B8">
-        <v>6413000.626355875</v>
+        <v>6374859.391618722</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>134</v>
+        <v>162</v>
       </c>
       <c r="B9">
         <v>8758481.331682835</v>
@@ -2568,23 +3560,23 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="B10">
-        <v>8031012.382994156</v>
+        <v>8021815.35225715</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="B11">
-        <v>7232737.003907331</v>
+        <v>7211282.246067458</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="B12">
         <v>8758481.331682835</v>
@@ -2592,18 +3584,146 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>137</v>
+        <v>168</v>
       </c>
       <c r="B13">
-        <v>8035208.523622232</v>
+        <v>8026207.197355519</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>141</v>
+        <v>173</v>
       </c>
       <c r="B14">
-        <v>7242028.792570359</v>
+        <v>7221038.466517587</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>155</v>
+      </c>
+      <c r="B15">
+        <v>8413001.954815762</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>145</v>
+      </c>
+      <c r="B16">
+        <v>8116015.684046027</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>146</v>
+      </c>
+      <c r="B17">
+        <v>7446192.073158038</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>147</v>
+      </c>
+      <c r="B18">
+        <v>8422928.903666575</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>159</v>
+      </c>
+      <c r="B19">
+        <v>7819960.867850869</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>148</v>
+      </c>
+      <c r="B20">
+        <v>7557855.447434981</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>161</v>
+      </c>
+      <c r="B21">
+        <v>6995690.30876994</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>149</v>
+      </c>
+      <c r="B22">
+        <v>6692431.354052545</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>163</v>
+      </c>
+      <c r="B23">
+        <v>8519906.513255803</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>150</v>
+      </c>
+      <c r="B24">
+        <v>8274558.530366185</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>165</v>
+      </c>
+      <c r="B25">
+        <v>7760952.154182715</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>151</v>
+      </c>
+      <c r="B26">
+        <v>7491110.719239343</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>167</v>
+      </c>
+      <c r="B27">
+        <v>8521286.261920173</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>152</v>
+      </c>
+      <c r="B28">
+        <v>8277398.373416154</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>169</v>
+      </c>
+      <c r="B29">
+        <v>7767001.52835057</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>153</v>
+      </c>
+      <c r="B30">
+        <v>7498940.920289172</v>
       </c>
     </row>
   </sheetData>
@@ -2621,36 +3741,36 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>157</v>
+        <v>189</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>158</v>
+        <v>190</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>159</v>
+        <v>191</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>161</v>
+        <v>193</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>162</v>
+        <v>194</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>163</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="B2">
         <v>17.65832997587177</v>
       </c>
       <c r="C2">
-        <v>17.65833301596729</v>
+        <v>17.65832728840482</v>
       </c>
       <c r="D2">
         <v>65.15454188318284</v>
@@ -2659,21 +3779,21 @@
         <v>1150.5204</v>
       </c>
       <c r="F2">
-        <v>1150.520598076031</v>
+        <v>1150.520224899322</v>
       </c>
       <c r="G2">
-        <v>1.721621198185053E-05</v>
+        <v>-1.521925884012935E-05</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>141</v>
+        <v>173</v>
       </c>
       <c r="B3">
         <v>45.91165732334162</v>
       </c>
       <c r="C3">
-        <v>45.91165732194755</v>
+        <v>45.91165732273501</v>
       </c>
       <c r="D3">
         <v>65.15454188318284</v>
@@ -2682,21 +3802,21 @@
         <v>2991.353</v>
       </c>
       <c r="F3">
-        <v>2991.35299990917</v>
+        <v>2991.352999960477</v>
       </c>
       <c r="G3">
-        <v>-3.036419763478788E-09</v>
+        <v>-1.321258445384125E-09</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>164</v>
+        <v>196</v>
       </c>
       <c r="B4">
         <v>35.31665995174353</v>
       </c>
       <c r="C4">
-        <v>35.31665995067117</v>
+        <v>35.31665995127691</v>
       </c>
       <c r="D4">
         <v>65.15454188318284</v>
@@ -2705,10 +3825,10 @@
         <v>2301.0408</v>
       </c>
       <c r="F4">
-        <v>2301.040799930131</v>
+        <v>2301.040799969598</v>
       </c>
       <c r="G4">
-        <v>-3.036408889463966E-09</v>
+        <v>-1.321247594304226E-09</v>
       </c>
     </row>
   </sheetData>
